--- a/cms/document/推送方案.xlsx
+++ b/cms/document/推送方案.xlsx
@@ -4,17 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="预研" sheetId="1" r:id="rId1"/>
+    <sheet name="fun+" sheetId="2" r:id="rId2"/>
+    <sheet name="apple" sheetId="3" r:id="rId3"/>
+    <sheet name="google" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t>http://aws.amazon.com/cn/sns/</t>
   </si>
@@ -122,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国内外通用，建议选择亚马逊的SNS，适用于国内和国外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国内，第三方服务推荐次序：个推 &gt;= 极光 &gt;= 百度 &gt;= 信鸽。各服务区别不大，都提供各种配套服务，比如用户标签等。目前个推还是市场第一。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +171,74 @@
   <si>
     <t>原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果推送服务apns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端打开后向苹果请求deviceToken，发送给服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端定义消息处理函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器发送推送，构造payload,支持自定义事件、播放声音、多语言等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器定时检查feedback，去掉失效的deviceToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣加推送服务Caffeine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器通过http直接请求，不需token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token在客户端SDK中会生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国内外通用，建议选择亚马逊的SNS，适用于国内和国外。趣加推送Caffeine就基于SNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷歌推送服务GCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成允许推送的应用证书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.android-doc.com/guide/google/gcm/gs.html</t>
+  </si>
+  <si>
+    <t>https://github.com/notnoop/java-apns</t>
+  </si>
+  <si>
+    <t>目前使用notnoop库v1.0 beta3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer.apple.com/library/ios/documentation/NetworkingInternet/Conceptual/RemoteNotificationsPG/Chapters/ApplePushService.html</t>
+  </si>
+  <si>
+    <t>http://developer.funplus.com/</t>
   </si>
 </sst>
 </file>
@@ -597,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -641,12 +708,12 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -685,7 +752,7 @@
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -706,7 +773,7 @@
     <row r="36" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -725,23 +792,23 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>9</v>
@@ -765,22 +832,22 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
@@ -809,22 +876,22 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -839,4 +906,139 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cms/document/推送方案.xlsx
+++ b/cms/document/推送方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="预研" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="apple" sheetId="3" r:id="rId3"/>
     <sheet name="google" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>http://aws.amazon.com/cn/sns/</t>
   </si>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>token在客户端SDK中会生成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国内外通用，建议选择亚马逊的SNS，适用于国内和国外。趣加推送Caffeine就基于SNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,175 @@
   </si>
   <si>
     <t>http://developer.funplus.com/</t>
+  </si>
+  <si>
+    <t>-https://developer.apple.com/library/mac/documentation/NetworkingInternet/Conceptual/RemoteNotificationsPG/Introduction.html#//apple_ref/doc/uid/TP40008194-CH1-SW1</t>
+  </si>
+  <si>
+    <t>--推送-------------</t>
+  </si>
+  <si>
+    <t>-provider需要知道user的语言，IETF BCP 47 language identifier</t>
+  </si>
+  <si>
+    <t>-推送消息如果无法推送（比如手机不在线）会保存一段时间，等到手机可连接时在发送。只能保存最近的一个消息。</t>
+  </si>
+  <si>
+    <t>--步骤--</t>
+  </si>
+  <si>
+    <t>-通知分为本地通知和远程通知。本体通知在预先安排的时间触发。远程通知又称推送。</t>
+  </si>
+  <si>
+    <t>-通知有提醒、角标数字、声音、有新内容提示、自定义类型</t>
+  </si>
+  <si>
+    <t>-通知支持多语言，可以由服务器直接根据客户端预言来发送，也可以把消息保存在客户端，服务端只发语言loc-key，并支持字符串格式化loc-args</t>
+  </si>
+  <si>
+    <t>-provider 对开发环境和发布环境有不同连接地址</t>
+  </si>
+  <si>
+    <t>-provider 要定时检查feedbck service，看看哪些设备的推送失败了，重推</t>
+  </si>
+  <si>
+    <t>-如果应用正在前台运行，应用可直接处理</t>
+  </si>
+  <si>
+    <t>-推送可以根据位置进行，详见Location-Based Notifications</t>
+  </si>
+  <si>
+    <t>-APNs推送是按照provider发送的顺序推的</t>
+  </si>
+  <si>
+    <t>-远程推送有一种silent remote notifications，收到后可以打开应用，从服务器获取新数据，但用户并不知道</t>
+  </si>
+  <si>
+    <t>-发送正确的推送没有返回，发送错误的推送有错误返回，并且会断开连接</t>
+  </si>
+  <si>
+    <t>-feedback连接建立后APNs自动推送所有数据回来并清空。不要再向这些失效的deviceToken发送推送</t>
+  </si>
+  <si>
+    <t>-增加协议，客户端传来device token</t>
+  </si>
+  <si>
+    <t>-To export a client SSL signing identity and install it on your server, read Installing Client SSL Certificates.</t>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GCM提供了客户端和java服务器端sdk</t>
+  </si>
+  <si>
+    <t>GCM不保证消息的到达和到达的顺序</t>
+  </si>
+  <si>
+    <t>需要设备系统版本在Android2.2以上，并且安装了Google Play Store。应用安装渠道不受限制。</t>
+  </si>
+  <si>
+    <t>--步骤1 注册---------------------------------------------</t>
+  </si>
+  <si>
+    <t>-客户端在第一次打开，在onCreate()发送com.google.android.c2dm.intent.REGISTER，GCM回复com.google.android.c2dm.intent.REGISTRATION，包含registration id.客户端需保存registration id.</t>
+  </si>
+  <si>
+    <t>-onCreate()要检测是否已经有registration id了。对REGISTRATION的监听要一直打开，因为GCM会刷新。</t>
+  </si>
+  <si>
+    <t>-这一步和苹果APNs基本类似，区别是registration id(device token)的更新，GCM会主动推送给客户端。服务器也会受到GCM返回的NotRegistered错误。</t>
+  </si>
+  <si>
+    <t>--步骤2 发送---------------------------------------------</t>
+  </si>
+  <si>
+    <t>--步骤3 接收---------------------------------------------</t>
+  </si>
+  <si>
+    <t>===========================================================</t>
+  </si>
+  <si>
+    <t>GCM支持双向通信，使用XMPP协议。也可以使用HTTP单向通信</t>
+  </si>
+  <si>
+    <t>GCM封装了APNs</t>
+  </si>
+  <si>
+    <t>CCS (XMPP) is asynchronous, which means it should be faster than HTTP. It also uses the existing GCM connection on the device to send messages from your app to your server (which saves battery, since you don't have to open your own connection to your server).</t>
+  </si>
+  <si>
+    <t>On the other hand, HTTP is much simpler to code, so unless you need the bi-directional functionality or you need to send messages in a very high speed, I'd stick with HTTP.</t>
+  </si>
+  <si>
+    <t>可以发送notification和data. notification里包含预定义的键，data里包含自定义键。可以同时发送notificiation和data</t>
+  </si>
+  <si>
+    <t>可以设置优先级（normal/high),时效（用于有时限的活动邀请等）</t>
+  </si>
+  <si>
+    <t>支持多个发送者向一个接受应用发推送。应用用每个sender id获取一次token</t>
+  </si>
+  <si>
+    <t>可以向一个主题topic推送。客户端可以订阅主题。服务端也可以增删改查订阅主题的客户端</t>
+  </si>
+  <si>
+    <t>可以向一组设备发送，用于向一个用户的多个设备发，每个group最多包含20个成员</t>
+  </si>
+  <si>
+    <t>服务器收到GCM返回的messageId只表示推送被GCM接收了，不表示已经发送</t>
+  </si>
+  <si>
+    <t>服务器收到NotRegistered错误表示token已经失效，应该删除</t>
+  </si>
+  <si>
+    <t>HTTP，服务器同步发送，返回后才能发送另一个。选择HTTP。</t>
+  </si>
+  <si>
+    <t>XMPP，服务器异步发送，但是不能批量发送。</t>
+  </si>
+  <si>
+    <t>发送到https://gcm-http.googleapis.com/gcm/send</t>
+  </si>
+  <si>
+    <t>Authorization: key=YOUR_API_KEY</t>
+  </si>
+  <si>
+    <t>Content-Type: application/json for JSON; application/x-www-form-urlencoded;charset=UTF-8 for plain text</t>
+  </si>
+  <si>
+    <t>库：https://github.com/google/gcm</t>
+  </si>
+  <si>
+    <t>-客户端获得registration id后发送给服务器，服务器将其存在数据库。</t>
+  </si>
+  <si>
+    <t>-客户端可以主动unregister，不再接收推送</t>
+  </si>
+  <si>
+    <t>-服务端需要保存一个在官网申请的API KEY</t>
+  </si>
+  <si>
+    <t>-payload data不能超过4096 bytes</t>
+  </si>
+  <si>
+    <t>-客户端收到Android系统发送的com.google.android.c2dm.intent.RECEIVE，解析出数据</t>
+  </si>
+  <si>
+    <t>-服务端重新发送可使用指数退避算法</t>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token由客户端SDK在第一次登录时自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只支持服务器向客户端推送（全部玩家/一组玩家）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -296,10 +461,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,7 +874,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -910,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -925,7 +1091,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -940,7 +1106,12 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>48</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -952,10 +1123,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -967,7 +1138,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -977,7 +1148,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1002,12 +1173,109 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1019,23 +1287,578 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
